--- a/united_kindom_emis.xlsx
+++ b/united_kindom_emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{45DB8A97-DD9B-48FA-A7EF-399F57D12B8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CFEA470F-7006-4D16-B80E-C32F795EC2D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="106_{AFD533B7-4D20-40EF-9A60-6F06FB2EE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21792" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{551D98CC-8573-4B2F-90F8-813A6B61914F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{551D98CC-8573-4B2F-90F8-813A6B61914F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E96131E-A8AD-48B8-857A-A106B9443371}">
   <dimension ref="A1:A689"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
